--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,175 +40,220 @@
     <t>name</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>shit</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>ready</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>growth</t>
   </si>
   <si>
     <t>alert</t>
@@ -217,43 +262,46 @@
     <t>safety</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>shop</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>stay</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -611,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>0.925</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7894736842105263</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,31 +796,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>71</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L4">
+        <v>55</v>
+      </c>
+      <c r="M4">
+        <v>55</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L4">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <v>33</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7534246575342466</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6923076923076923</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.8983050847457628</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,16 +949,16 @@
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6470588235294118</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.8668407310704961</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L8">
-        <v>332</v>
+        <v>93</v>
       </c>
       <c r="M8">
-        <v>332</v>
+        <v>93</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5833333333333334</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,16 +1099,16 @@
         <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.8448275862068966</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L10">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5405405405405406</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,16 +1149,16 @@
         <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8207547169811321</v>
+        <v>0.8359375</v>
       </c>
       <c r="L11">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.52</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.492063492063492</v>
+        <v>0.4497354497354497</v>
       </c>
       <c r="C13">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D13">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4901960784313725</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.8125</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4341085271317829</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C15">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.8125</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4067796610169492</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.7625</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>311</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>311</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.32</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>38</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K17">
-        <v>0.7575757575757576</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2909090909090909</v>
+        <v>0.325</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1528,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2818791946308725</v>
+        <v>0.2885906040268457</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.7209302325581395</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.6984126984126984</v>
+        <v>0.78</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,37 +1628,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1633466135458167</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.6875</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,37 +1678,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08333333333333333</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1672,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,37 +1728,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01327290385237941</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3048</v>
+        <v>62</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.6470588235294118</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L23">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1722,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1730,37 +1778,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.009887005649717515</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2103</v>
+        <v>216</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.6271186440677966</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L24">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="M24">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1772,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,37 +1828,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005069708491761723</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3140</v>
+        <v>339</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.6071428571428571</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1826,17 +1874,41 @@
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>286</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.6063829787234043</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1848,21 +1920,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.01614465611882467</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>60</v>
+      </c>
+      <c r="E27">
+        <v>0.17</v>
+      </c>
+      <c r="F27">
+        <v>0.83</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3047</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.602510460251046</v>
+        <v>0.7</v>
       </c>
       <c r="L27">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1874,73 +1970,145 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.01274787535410765</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <v>0.48</v>
+      </c>
+      <c r="F28">
+        <v>0.52</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2091</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.5897435897435898</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M28">
         <v>24</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.01121656600517688</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0.13</v>
+      </c>
+      <c r="F29">
+        <v>0.87</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1146</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L29">
+        <v>15</v>
+      </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.009232728430436167</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>89</v>
+      </c>
+      <c r="E30">
+        <v>0.67</v>
+      </c>
+      <c r="F30">
+        <v>0.33</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3112</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L30">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29">
-        <v>0.5730337078651685</v>
-      </c>
-      <c r="L29">
-        <v>51</v>
-      </c>
-      <c r="M29">
-        <v>51</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30">
-        <v>0.5692307692307692</v>
-      </c>
-      <c r="L30">
-        <v>37</v>
-      </c>
       <c r="M30">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1952,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>0.5428571428571428</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1978,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>0.5185185185185185</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2004,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.5142857142857142</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2030,21 +2198,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2056,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.4814814814814815</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2082,47 +2250,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.4634146341463415</v>
+        <v>0.6135593220338983</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.4117647058823529</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2134,21 +2302,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>0.4102564102564102</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2160,21 +2328,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>0.3939393939393939</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2186,21 +2354,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>0.3835616438356164</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2212,15 +2380,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K41">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L41">
         <v>15</v>
@@ -2238,21 +2406,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K42">
-        <v>0.2807017543859649</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2264,21 +2432,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K43">
-        <v>0.25</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2290,21 +2458,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K44">
-        <v>0.1805555555555556</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2316,15 +2484,15 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K45">
-        <v>0.1048387096774194</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L45">
         <v>13</v>
@@ -2342,125 +2510,125 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K46">
-        <v>0.07608695652173914</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>170</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K47">
-        <v>0.04578313253012048</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>396</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K48">
-        <v>0.04560260586319218</v>
+        <v>0.4</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>293</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K49">
-        <v>0.02782071097372488</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N49">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>629</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K50">
-        <v>0.01553829078801332</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2472,85 +2640,345 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>887</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="K51">
-        <v>0.0141287284144427</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L51">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="N51">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>3140</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="K52">
-        <v>0.008953817153628653</v>
+        <v>0.3125</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N52">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="K53">
-        <v>0.005870841487279843</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53">
+        <v>15</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K54">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="L54">
+        <v>17</v>
+      </c>
+      <c r="M54">
+        <v>17</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K55">
+        <v>0.1559633027522936</v>
+      </c>
+      <c r="L55">
+        <v>17</v>
+      </c>
+      <c r="M55">
+        <v>17</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K56">
+        <v>0.1126760563380282</v>
+      </c>
+      <c r="L56">
+        <v>16</v>
+      </c>
+      <c r="M56">
+        <v>17</v>
+      </c>
+      <c r="N56">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O56">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57">
+        <v>0.05844155844155844</v>
+      </c>
+      <c r="L57">
         <v>18</v>
       </c>
-      <c r="M53">
-        <v>59</v>
-      </c>
-      <c r="N53">
-        <v>0.31</v>
-      </c>
-      <c r="O53">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>3048</v>
+      <c r="M57">
+        <v>18</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K58">
+        <v>0.03373493975903614</v>
+      </c>
+      <c r="L58">
+        <v>14</v>
+      </c>
+      <c r="M58">
+        <v>15</v>
+      </c>
+      <c r="N58">
+        <v>0.93</v>
+      </c>
+      <c r="O58">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K59">
+        <v>0.02780867630700778</v>
+      </c>
+      <c r="L59">
+        <v>25</v>
+      </c>
+      <c r="M59">
+        <v>27</v>
+      </c>
+      <c r="N59">
+        <v>0.93</v>
+      </c>
+      <c r="O59">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K60">
+        <v>0.02472952086553323</v>
+      </c>
+      <c r="L60">
+        <v>16</v>
+      </c>
+      <c r="M60">
+        <v>19</v>
+      </c>
+      <c r="N60">
+        <v>0.84</v>
+      </c>
+      <c r="O60">
+        <v>0.16</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61">
+        <v>0.01891551071878941</v>
+      </c>
+      <c r="L61">
+        <v>60</v>
+      </c>
+      <c r="M61">
+        <v>89</v>
+      </c>
+      <c r="N61">
+        <v>0.67</v>
+      </c>
+      <c r="O61">
+        <v>0.33</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K62">
+        <v>0.01565995525727069</v>
+      </c>
+      <c r="L62">
+        <v>14</v>
+      </c>
+      <c r="M62">
+        <v>14</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63">
+        <v>0.01181474480151229</v>
+      </c>
+      <c r="L63">
+        <v>25</v>
+      </c>
+      <c r="M63">
+        <v>52</v>
+      </c>
+      <c r="N63">
+        <v>0.48</v>
+      </c>
+      <c r="O63">
+        <v>0.52</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2091</v>
       </c>
     </row>
   </sheetData>
